--- a/数据整理/stocks/A股/上证主板/601328-交通银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601328-交通银行.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5924,7 +5925,6 @@
           <t>招商财经大数据策略股票C</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
           <t>81.93</t>
@@ -5940,6 +5940,2568 @@
       </c>
       <c r="H84" t="n">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515290</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.0211</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512800</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>82.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.4548</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>510230</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>45.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5479</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512700</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0925</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161121</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8888</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160631</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7767</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161723</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7584</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161029</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证银行指数</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4838</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159940</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证全指金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4645</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>290002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰信先行策略混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4538</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160517</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4439</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160716</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4002</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>512820</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2732</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009860</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2248</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515020</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1957</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160418</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1551</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1500</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003912</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰达宏利启富灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>65.56</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1178</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>512730</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>97.60</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.44</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160323</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏磐泰混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>22.30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009927</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>512750</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>165521</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>信诚中证800金融指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>510060</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银上证央企50ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159933</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国投瑞银金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001074</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004495</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时量化平衡混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>39.44</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005055</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>510030</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华宝上证180价值ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>510650</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏金融ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>515280</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005295</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>诺德天富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>75.17</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>168205</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中融中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>98.22</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>510090</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>建信上证社会责任ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>97.03</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>98.34</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001073</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化绝对收益策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>70.67</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005635</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时量化多策略股票A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159931</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇添富中证金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010657</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>30.38</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>512640</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>嘉实中证金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002804</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化对冲稳健收益定期开放混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>56.93</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>160814</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长盛中证金融地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001059</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中金绝对收益策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>77.09</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010658</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>30.38</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>515520</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>大成MSCI中国A股质优价值100ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>97.53</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>160725</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>003913</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>泰达宏利启富灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>65.56</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009928</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006531</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>510110</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>海富通上证周期ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>510690</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>兴业上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>512270</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华安沪深300行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005636</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博时量化多策略股票C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006532</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601328-交通银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601328-交通银行.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8507,4 +8508,2528 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512800</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.8515</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515290</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.6706</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>510230</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3838</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512700</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2896</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161121</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9618</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161723</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8586</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161029</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证银行指数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6641</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160631</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6488</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160517</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5124</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159940</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发中证全指金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.38</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4575</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>512820</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4050</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160716</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3998</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009686</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3989</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515020</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2759</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009860</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2423</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>512730</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1609</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160418</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1520</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159887</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国中证800银行交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1407</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>206013</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华宏观灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>32.58</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1400</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008856</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏安泰对冲策略3个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>76.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002837</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏网购精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007939</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏网购精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1259</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>516310</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达中证银行交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1136</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>165310</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>建信沪深300指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.82</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>73.01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009927</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>512750</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011971</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>165521</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>信诚中证800金融指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001074</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007806</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>建信MSCI中国A股指数增强A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159933</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国投瑞银金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>510060</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银上证央企50ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>673050</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>西部利得新盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>68.80</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>160725</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007807</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>建信MSCI中国A股指数增强C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>515280</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>510030</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华宝上证180价值ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001073</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化绝对收益策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>75.13</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009208</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>建信沪深300指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>510650</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华夏金融ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005295</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>诺德天富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>72.22</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>168205</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中融中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011972</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>510090</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>建信上证社会责任ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>159931</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>汇添富中证金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>512640</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>嘉实中证金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009687</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>160814</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长盛中证金融地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006531</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>515520</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>大成MSCI中国A股质优价值100ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009928</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>510110</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>海富通上证周期ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006942</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>510690</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>兴业上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>96.21</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006943</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601328-交通银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601328-交通银行.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11032,4 +11033,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>65</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>66</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>83</v>
+      </c>
+      <c r="D4" t="n">
+        <v>25.85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>59</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601328-交通银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601328-交通银行.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11041,7 +11042,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11052,17 +11053,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -11072,14 +11093,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>65</v>
-      </c>
-      <c r="D2" t="n">
-        <v>20.35</v>
+          <t>512800</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.4632</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -11088,14 +11131,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>66</v>
-      </c>
-      <c r="D3" t="n">
-        <v>19.29</v>
+          <t>515290</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.6443</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -11104,14 +11169,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>83</v>
-      </c>
-      <c r="D4" t="n">
-        <v>25.85</v>
+          <t>512700</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3763</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -11120,13 +11207,3075 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>510230</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>40.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3759</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161121</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0624</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161723</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9451</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161029</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证银行指数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8013</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160631</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5874</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160517</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5313</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159940</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发中证全指金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4365</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>512820</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3933</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160716</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3891</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>515020</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3847</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009860</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2987</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159887</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证800银行交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2938</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010845</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰达宏利波控回报12个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>20.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>27.31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2192</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000753</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝量化对冲策略混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>75.92</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1735</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160418</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1470</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>206013</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华宏观灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>31.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1427</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>512650</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富中证长三角一体化发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>96.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1417</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>512730</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>97.71</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1377</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000172</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.49</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1237</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>960041</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合H</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12.49</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1237</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008856</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏安泰对冲策略3个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>80.81</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1191</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003876</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华宝沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1148</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>516310</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达中证银行交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.04</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006942</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1009</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005486</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>平安量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>66.84</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002837</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏网购精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000754</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华宝量化对冲策略混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>75.92</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000507</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>25.77</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001190</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011971</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007939</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏网购精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>512390</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>平安MSCI中国A股低波动ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>165521</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>信诚中证800金融指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>512750</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>159933</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国投瑞银金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>160725</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>515280</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>510650</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏金融ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>510060</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>工银上证央企50ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009837</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005635</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时量化多策略股票A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>510030</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华宝上证180价值ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005295</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>诺德天富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011972</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004653</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>建信鑫利回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>41.51</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>510090</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>建信上证社会责任ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>96.04</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>99.01</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>168205</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中融中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>512640</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>嘉实中证金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>159931</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>汇添富中证金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>004652</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>建信鑫利回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>41.51</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>97.07</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>160814</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>长盛中证金融地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>007404</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华宝沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005960</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>博时量化价值股票A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>090011</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>大成核心双动力混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>515520</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>大成MSCI中国A股质优价值100ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>95.53</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>510110</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>海富通上证周期ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>95.32</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009838</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001191</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>000508</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合B</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>25.77</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005636</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>博时量化多策略股票C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005487</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>平安量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>66.84</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005429</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>34.98</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005961</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>博时量化价值股票C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010234</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005430</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>34.98</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>006943</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>81</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>65</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>66</v>
+      </c>
+      <c r="D4" t="n">
+        <v>19.29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>83</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25.85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>59</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>14.47</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601328-交通银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601328-交通银行.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14174,7 +14175,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14185,17 +14186,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -14205,14 +14226,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>81</v>
-      </c>
-      <c r="D2" t="n">
-        <v>22.05</v>
+          <t>512800</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>101.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.0781</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -14221,14 +14264,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>65</v>
-      </c>
-      <c r="D3" t="n">
-        <v>20.35</v>
+          <t>515290</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.0935</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -14237,14 +14302,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>66</v>
-      </c>
-      <c r="D4" t="n">
-        <v>19.29</v>
+          <t>010341</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8574</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -14253,14 +14340,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>83</v>
-      </c>
-      <c r="D5" t="n">
-        <v>25.85</v>
+          <t>000746</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商行业精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6124</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -14269,13 +14378,5326 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>512700</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5042</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>750001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>45.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>70.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4958</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>510230</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>36.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4335</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000311</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>52.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3340</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161121</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1697</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161723</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0401</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161706</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商优质成长混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9776</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161029</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证银行指数</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8688</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>050002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时裕富沪深300指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>58.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8564</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160631</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7181</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011855</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华长荣混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>67.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6745</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519671</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银河沪深300价值指数</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6152</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160517</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5780</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004374</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5554</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159940</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发中证全指金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5106</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160716</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4372</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>512820</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4175</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>515020</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3945</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006642</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3250</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>310398</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300价值指数A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>14.42</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2740</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009860</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2659</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>561300</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰沪深300增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>15.78</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>96.34</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2619</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005587</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>安信比较优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>68.82</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2497</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005904</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2199</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008261</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商研究优选股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1933</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004375</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1933</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>310318</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1710</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159887</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国中证800银行交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1699</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>160418</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1624</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007470</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博道叁佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>11.52</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1486</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>217012</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1464</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>960019</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1464</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001009</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>上投摩根安全战略股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1454</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008978</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>银华长丰混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>70.68</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1413</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010845</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>泰达宏利波控回报12个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>23.79</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1382</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000172</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>12.49</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1361</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002385</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时裕富沪深300指数C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1327</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>512650</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇添富中证长三角一体化发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>96.00</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1237</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>512730</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏华中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>97.57</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007586</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华泰保兴多策略三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012708</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1127</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003876</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华宝沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1116</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>516310</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>易方达中证银行交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1088</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007243</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>57.12</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>206013</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏华宏观灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>32.95</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005067</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>61.05</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0987</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>000877</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005870</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏华沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011132</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>007471</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>博道叁佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>007044</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>博道沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>000753</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华宝量化对冲策略混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>45.75</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>660008</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>农银沪深300指数A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>512390</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>平安MSCI中国A股低波动ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>512750</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>159933</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>国投瑞银金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>95.50</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>510060</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>工银上证央企50ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001074</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>160725</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>165521</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>信诚中证800金融指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011971</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>012709</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>515280</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>富国中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006121</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华安双核驱动混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>510030</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华宝上证180价值ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>007800</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300价值指数C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>000512</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>国泰沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>510650</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华夏金融ETF</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>008318</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>博道久航混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>005055</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>000754</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华宝量化对冲策略混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>45.75</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>95.16</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>004335</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华宝新飞跃灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>44.86</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>002111</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华宝新起点灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>005635</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>博时量化多策略股票A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>510090</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>建信上证社会责任ETF</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>005905</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>011133</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>004652</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>建信鑫利回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>63.43</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011972</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>159931</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>汇添富中证金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>007804</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>168205</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>中融中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>501060</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>512640</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>嘉实中证金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010234</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>007045</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>博道沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>004653</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>建信鑫利回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>63.43</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>001073</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化绝对收益策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>62.27</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>160814</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>长盛中证金融地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>008319</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>博道久航混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>515520</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>大成MSCI中国A股质优价值100ETF</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>96.30</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>007404</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>华宝沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>510110</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>海富通上证周期ETF</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>95.83</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>003416</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>004891</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>华润元大成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>010872</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>博时沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>97.77</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>004892</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>华润元大成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>005960</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>博时量化价值股票A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>009270</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>61.05</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>002804</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化对冲稳健收益定期开放混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>70.18</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>006942</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>27.68</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>005961</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>博时量化价值股票C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>007244</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>57.12</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>27.68</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>501061</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>510270</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>中银上证国企100ETF</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>005429</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>005636</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>博时量化多策略股票C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>010873</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>博时沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>006531</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>002063</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>国泰沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>005152</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>农银沪深300指数C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>007952</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>005430</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>006532</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>006943</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>960041</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合H</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>141</v>
+      </c>
+      <c r="D2" t="n">
+        <v>37.07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>81</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>65</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20.35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>66</v>
+      </c>
+      <c r="D5" t="n">
+        <v>19.29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>83</v>
+      </c>
+      <c r="D6" t="n">
+        <v>25.85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>59</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>14.47</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601328-交通银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601328-交通银行.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19580,7 +19581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19591,17 +19592,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -19611,14 +19632,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>141</v>
-      </c>
-      <c r="D2" t="n">
-        <v>37.07</v>
+          <t>512800</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>105.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.0369</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -19627,14 +19670,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>81</v>
-      </c>
-      <c r="D3" t="n">
-        <v>22.05</v>
+          <t>515290</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>73.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.2468</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -19643,14 +19708,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>65</v>
-      </c>
-      <c r="D4" t="n">
-        <v>20.35</v>
+          <t>512700</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5896</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -19659,14 +19746,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>66</v>
-      </c>
-      <c r="D5" t="n">
-        <v>19.29</v>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>56.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4724</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -19675,14 +19784,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>83</v>
-      </c>
-      <c r="D6" t="n">
-        <v>25.85</v>
+          <t>510230</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>36.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4472</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -19691,13 +19822,3062 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>161121</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1223</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161723</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7959</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161029</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证银行指数</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7884</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011855</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华长荣混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6579</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160631</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5139</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519671</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河沪深300价值指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>25.74</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5071</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159940</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发中证全指金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.91</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4798</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160517</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4797</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009860</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4053</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515020</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3614</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160716</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3487</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>512820</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2733</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159887</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国中证800银行交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2344</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>561300</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰沪深300增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>95.61</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2265</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000172</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>16.67</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2100</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1498</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008978</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华长丰混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1375</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160418</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1275</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>512730</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>96.84</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010845</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泰达宏利波控回报12个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>22.36</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1025</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005706</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>兴业龙腾双益平衡混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>512650</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富中证长三角一体化发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>96.62</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>516310</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达中证银行交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012042</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012708</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>81.84</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>512390</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>平安MSCI中国A股低波动ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>97.59</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159933</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国投瑞银金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>512750</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007044</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博道沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>510060</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>工银上证央企50ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>165521</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>信诚中证800金融指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>515280</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>510030</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华宝上证180价值ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>860010</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>54.55</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>860029</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>54.55</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>510650</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏金融ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>003154</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华宝兴业新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>25.02</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011971</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002111</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华宝新起点灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004335</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华宝新飞跃灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>46.74</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>516210</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华安中证银行交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011972</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>512640</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>嘉实中证金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>510090</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>建信上证社会责任ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>98.22</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007045</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>博道沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>003144</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华宝新机遇灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>21.59</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>160725</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>159931</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>汇添富中证金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010234</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>012709</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>98.15</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>013330</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>富国中证银行指数C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>160814</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>长盛中证金融地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>42.53</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>162414</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华宝新机遇灵活配置混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>21.59</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>014028</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>013262</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>西部利得个股精选股票C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>013074</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>银河沪深300价值指数C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>510110</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>海富通上证周期ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>96.54</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>515520</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>大成MSCI中国A股质优价值100ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006942</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>860028</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>54.55</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>673090</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>西部利得个股精选股票</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>004403</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>013121</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>信诚中证800金融指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>004404</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>960041</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合H</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>006943</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>014983</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华安中证银行C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>-0.31</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>-0.0170</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>82</v>
+      </c>
+      <c r="D2" t="n">
+        <v>24.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>141</v>
+      </c>
+      <c r="D3" t="n">
+        <v>37.07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>81</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>65</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20.35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>66</v>
+      </c>
+      <c r="D6" t="n">
+        <v>19.29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>83</v>
+      </c>
+      <c r="D7" t="n">
+        <v>25.85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>59</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>14.47</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601328-交通银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601328-交通银行.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D2" t="n">
-        <v>24.46</v>
+        <v>23.48</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="D3" t="n">
-        <v>37.07</v>
+        <v>24.46</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="D4" t="n">
-        <v>22.05</v>
+        <v>37.07</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D5" t="n">
-        <v>20.35</v>
+        <v>22.05</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" t="n">
-        <v>19.29</v>
+        <v>20.35</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="D7" t="n">
-        <v>25.85</v>
+        <v>19.29</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>83</v>
+      </c>
+      <c r="D8" t="n">
+        <v>25.85</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>59</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>14.47</v>
       </c>
     </row>
@@ -600,6 +617,3400 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H89"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512800</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.4142</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515290</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>72.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.3494</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512700</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4918</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>52.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3978</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>510230</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>32.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3677</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161723</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7820</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161029</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证银行指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7193</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161121</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6549</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011855</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华长荣混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>65.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6098</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>483003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银精选平衡混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.78</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>65.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5681</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159940</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发中证全指金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4850</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160631</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4802</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519671</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河沪深300价值指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>23.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4775</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160517</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4420</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515020</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4276</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160716</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3817</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009860</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3777</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>512820</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2993</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159887</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国中证800银行ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2173</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>310398</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300价值指数A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1977</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005396</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中金丰硕混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>76.61</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1504</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008978</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华长丰混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>73.86</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1277</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012042</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1171</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>512730</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>95.93</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.29</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1022</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>512650</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富中证长三角一体化发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>96.43</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005706</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴业龙腾双益平衡混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>32.02</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>516310</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>160418</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安中证银行A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010845</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰达宏利波控回报12个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>23.99</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012708</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007800</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300价值指数C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>512390</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>平安MSCI中国A股低波动ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>512750</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>159933</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国投瑞银金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>510060</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>工银上证央企50ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>97.77</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>165521</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>信诚中证800金融指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>515280</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>516210</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华安中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001074</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>510030</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华宝上证180价值ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011971</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011972</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>160725</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>003154</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华宝新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>26.55</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004335</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华宝新飞跃灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>44.56</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010868</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华宝安盈混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>20.57</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>510650</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华夏金融ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002111</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华宝新起点灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>26.43</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>003144</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华宝新机遇灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>25.29</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>510090</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>建信上证社会责任ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>512640</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>嘉实中证金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>013074</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>银河沪深300价值指数C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>501060</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>013330</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>富国中证银行指数C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>159931</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>汇添富中证金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001073</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化绝对收益策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>67.85</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>160814</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>长盛中证金融地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>012709</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>014028</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>007939</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华夏网购精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>014983</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华安中证银行C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>515520</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>大成MSCI中国A股质优价值100ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>510110</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>海富通上证周期ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>97.17</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>63.44</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009384</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫MSCI中国A股指数增强A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>63.44</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>002837</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华夏网购精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>98.11</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>162414</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华宝新机遇灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>25.29</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>006942</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>501061</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>013491</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>同泰金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>013121</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>信诚中证800金融指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>013490</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>同泰金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>006531</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>016343</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）E</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>014866</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫MSCI中国A股指数增强C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>006943</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3762,7 +7173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9167,7 +12578,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12299,7 +15710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14823,7 +18234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17385,7 +20796,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20588,7 +23999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601328-交通银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601328-交通银行.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D2" t="n">
-        <v>23.48</v>
+        <v>26.48</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D3" t="n">
-        <v>24.46</v>
+        <v>23.48</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="D4" t="n">
-        <v>37.07</v>
+        <v>24.46</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="D5" t="n">
-        <v>22.05</v>
+        <v>37.07</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D6" t="n">
-        <v>20.35</v>
+        <v>22.05</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" t="n">
-        <v>19.29</v>
+        <v>20.35</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="D8" t="n">
-        <v>25.85</v>
+        <v>19.29</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,2328 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>83</v>
+      </c>
+      <c r="D9" t="n">
+        <v>25.85</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>59</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>14.47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512800</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.9201</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160631</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5256</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>510230</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>49.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4923</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512700</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9362</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161723</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6338</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161121</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4063</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160716</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4048</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159940</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发中证全指金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3783</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519671</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河沪深300价值指数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3731</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161029</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证银行指数</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3152</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160418</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2699</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>512820</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2417</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004952</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴全恒益债券A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>38.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1914</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160517</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1906</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009860</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1867</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>310398</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300价值指数A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1745</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515020</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1620</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005961</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时量化价值股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1261</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005960</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时量化价值股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1239</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>165521</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信诚中证800金融指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1220</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1219</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>512730</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>97.02</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.64</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>510890</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>兴业上证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>97.19</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159933</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国投瑞银金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>512750</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>510060</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银上证央企50ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002768</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华安安进灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>22.19</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001196</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东方鼎新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>510030</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华宝上证180价值ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>501060</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000199</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国泰量化策略收益混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>72.15</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>510650</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏金融ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005295</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>诺德天富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>97.86</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>515520</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>大成MSCI中国A股质优价值100ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>97.29</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>515280</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>168205</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中融中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>510090</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>建信上证社会责任ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>160814</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长盛中证金融地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159931</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇添富中证金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>510690</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>兴业上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002192</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东方鼎新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>512640</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>嘉实中证金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>98.50</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005343</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>510110</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>海富通上证周期ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>160725</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004953</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>兴全恒益债券C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007800</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300价值指数C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>97.83</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>501061</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>512270</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华安沪深300行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>95.26</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005344</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2932,3860 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512800</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>74.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.2654</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515290</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>63.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6645</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>142.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.5715</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>54.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5478</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>510230</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>35.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4393</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512700</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2907</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>016343</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7590</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161723</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7491</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161029</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证银行指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7251</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161121</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6611</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011855</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华长荣混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>74.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6262</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159940</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发中证全指金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5129</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519671</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河沪深300价值指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>24.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4926</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>483003</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银精选平衡混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>66.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4477</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160631</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4472</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160517</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4168</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160716</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3899</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>26.42</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3752</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>515020</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3352</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009860</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3330</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>512820</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2956</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>310398</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300价值指数A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>14.91</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2833</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15.63</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2266</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159887</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国中证800银行ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2091</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1466</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008978</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银华长丰混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.18</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1311</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012042</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1207</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>160418</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华安中证银行A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>512650</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富中证长三角一体化发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>97.09</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>512730</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>516310</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012708</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>78.50</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>510060</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银上证央企50ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>970007</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华安证券汇赢增利一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>11.05</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>22.39</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>159933</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国投瑞银金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>512750</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>512390</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>平安MSCI中国A股低波动ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002315</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>创金合信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>165521</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>信诚中证800金融指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>970008</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华安证券汇赢增利一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>22.39</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007800</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300价值指数C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>515280</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富国中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002310</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>创金合信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>510030</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华宝上证180价值ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>160725</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009747</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中科沃土沃鑫成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001324</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华宝新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>516210</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华安中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004335</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华宝新飞跃灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>50.59</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011971</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>510650</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>上证金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010868</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华宝安盈混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>22.39</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>013074</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>银河沪深300价值指数C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>510090</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>建信上证社会责任ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>99.01</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>512640</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>嘉实中证金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>003144</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华宝新机遇灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>32.23</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>501060</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005960</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>博时量化价值股票A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011972</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>万家中证红利指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>159931</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>汇添富中证金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>970042</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>国海量化优选一年持有股票C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>860029</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>59.40</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>013330</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>富国中证银行指数C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>002111</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华宝新起点灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>32.43</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>160814</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>长盛中证金融地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>003154</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华宝新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>014028</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>510110</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>海富通上证周期ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>97.02</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>007939</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华夏网购精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>012709</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>515520</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>大成MSCI中国A股质优价值100ETF</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>96.85</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>162414</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华宝新机遇灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>32.23</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>005961</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>博时量化价值股票C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>002837</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华夏网购精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>000688</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>景顺长城研究精选股票</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>80.47</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>006942</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>501061</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>860028</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>59.40</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>003125</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>中科沃土沃鑫成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>970041</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>国海量化优选一年持有股票A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>015558</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>万家中证红利指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>970006</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华安证券汇赢增利一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>22.39</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>013121</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>信诚中证800金融指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>860010</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>59.40</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>006943</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>014983</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>华安中证银行C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>-0.42</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>-0.0229</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4010,7 +10179,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7173,7 +13342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12578,7 +18747,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15710,7 +21879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18234,7 +24403,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20796,7 +26965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -23997,2302 +30166,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H60"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>512800</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华宝中证银行ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>92.31</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.05</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.33</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.9201</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>160631</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华中证银行指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>30.15</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.5256</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>510230</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰上证180金融ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>49.25</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.85</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.4923</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>512700</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>南方中证银行ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>17.50</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>99.75</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.35</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.9362</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>161723</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>招商中证银行指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>12.60</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.21</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.6338</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>161121</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>易方达中证银行指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>8.03</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4063</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>160716</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>嘉实中证锐联基本面50指数(LOF)A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>12.73</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.4048</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>159940</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>广发中证全指金融地产ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>19.01</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>99.67</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3783</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>519671</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>银河沪深300价值指数</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>20.06</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.93</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.3731</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>161029</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>富国中证银行指数</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>6.33</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>92.68</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.3152</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>160418</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华安中证银行指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.81</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2699</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>512820</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>汇添富中证银行ETF</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>99.55</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2417</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>004952</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>兴全恒益债券A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>38.29</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>22.89</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1914</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>160517</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>博时中证银行指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.06</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1906</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009860</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>易方达中证银行指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1867</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>310398</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>申万菱信沪深300价值指数A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>9.59</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.76</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1745</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>515020</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>华夏中证银行ETF</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>98.14</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>5.33</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1620</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005961</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>博时量化价值股票C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>5.73</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>89.33</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1261</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005960</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>博时量化价值股票A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>5.63</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>89.33</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1239</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>165521</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>信诚中证800金融指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.96</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1220</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>008115</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>天弘中证红利低波动100指数C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>6.45</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.1219</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>510160</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>南方中证南方小康产业ETF</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>98.43</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0999</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>515500</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>海富通中证长三角领先ETF</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0861</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>512730</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>鹏华中证银行ETF</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>97.02</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0804</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>510130</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>易方达上证中盘ETF</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>98.64</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0671</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>510890</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>兴业上证红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>97.19</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0670</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>159933</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>国投瑞银金融地产ETF</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>94.19</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0663</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>512750</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>嘉实中证锐联基本面50ETF</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>98.98</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0588</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>002849</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>金信智能中国2025灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>85.33</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0525</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>510060</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>工银上证央企50ETF</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>99.15</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0492</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>002768</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>华安安进灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>7.84</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>22.19</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0463</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>001196</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>东方鼎新灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>5.94</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>26.97</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0362</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>510030</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>华宝上证180价值ETF</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>99.57</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0352</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>501060</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>中金中证优选300指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0338</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>000199</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>国泰量化策略收益混合</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>72.15</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0316</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>510650</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>华夏金融ETF</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>97.81</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0264</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>005295</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>诺德天富灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>75.31</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0256</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>515100</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>景顺长城中证红利低波动100ETF</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>97.86</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0248</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>515520</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>大成MSCI中国A股质优价值100ETF</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>97.29</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0248</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>512530</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>建信沪深300红利ETF</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>95.49</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0233</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>515280</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>富国中证银行ETF</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>96.57</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0232</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>168205</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>中融中证银行指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>92.77</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0223</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>515300</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>嘉实沪深300红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>98.29</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0222</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>510090</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>建信上证社会责任ETF</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>97.08</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0208</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>160814</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>长盛中证金融地产指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0190</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>159931</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>汇添富中证金融地产ETF</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>99.52</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0187</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>510690</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>兴业上证180金融ETF</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>98.52</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0187</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>002192</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>东方鼎新灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>26.97</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0174</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>512640</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>嘉实中证金融地产ETF</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>98.50</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0161</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>008114</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>天弘中证红利低波动100指数A</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0155</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>005343</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>长安裕盛灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>82.39</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0134</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>510110</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>海富通上证周期ETF</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>94.55</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0088</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>160725</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>嘉实中证锐联基本面50指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0054</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>004953</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>兴全恒益债券C</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>22.89</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0050</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>007800</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>申万菱信沪深300价值指数C</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>93.76</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0049</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>510220</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>华泰柏瑞上证中小盘ETF</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>97.83</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0036</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>501061</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>中金中证优选300指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>512270</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>华安沪深300行业中性低波动ETF</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>95.26</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>005344</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>长安裕盛灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>82.39</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>